--- a/DaymetRandomPointsCMPR/CMPRAverage.xlsx
+++ b/DaymetRandomPointsCMPR/CMPRAverage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danielle Glass\Documents\RWorkingDirectory3\Sheepies5\DaymetRandomPointsCMPR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABE60B0-D67D-481C-A4C0-5FC2784954F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA05212F-7549-4E5B-A2B3-AD6786749D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="4524" windowWidth="12000" windowHeight="7902" activeTab="5" xr2:uid="{733AEE2D-1F1F-450C-A22C-93BF929D69C0}"/>
+    <workbookView xWindow="7896" yWindow="1890" windowWidth="12204" windowHeight="10062" activeTab="5" xr2:uid="{733AEE2D-1F1F-450C-A22C-93BF929D69C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12674,8 +12674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21AF00E5-6C32-46D8-86AF-90B0785073B3}">
   <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="J81" sqref="J81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
